--- a/job_details.xlsx
+++ b/job_details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>serial number</t>
   </si>
@@ -186,6 +186,22 @@
   <si>
     <t>akhilesh pradhan</t>
   </si>
+  <si>
+    <t>gmail</t>
+  </si>
+  <si>
+    <t>Bachelor's or Master's degree in Business Analytics, Computer Science, MIS or related field with academic excellence
+Proficiency in RDBMS concepts, SQL, and programming languages such as Python
+Strong analytical and problem-solving skills to convert intricate business requirements into technology solutions
+Knowledge of algorithms and data structures
+Additional Skills:</t>
+  </si>
+  <si>
+    <t>prathmeshvaidya20@gmail.com</t>
+  </si>
+  <si>
+    <t>vaidyaprathmesh20@gmail.com</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +230,14 @@
       <sz val="11"/>
       <color rgb="FF474D6A"/>
       <name val="Satoshi"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,10 +272,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -261,8 +286,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="73" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="73" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -769,7 +797,50 @@
         <v>40</v>
       </c>
     </row>
+    <row r="11" spans="1:6" ht="105">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="105">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>